--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,61 +436,46 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>0.893730324430364</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>-1.586614087300087</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.61188520630966</v>
+        <v>-1.611885206309638</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>-0.8256244756900011</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>-1.61188520630966</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>0.5994119800717845</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -501,30 +486,21 @@
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>1.813262858385434</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>1.128600547465064</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>2.397632938760519</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -535,30 +511,21 @@
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>2.168477229273624</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>2.397632938760519</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>0.6997950332806147</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.08005015963426</v>
+        <v>0.4163953164477929</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>0.5991205513815823</v>
+        <v>0.03393100538855442</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.2497225331041353</v>
+        <v>0.3351240474928963</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.876770729193722</v>
+        <v>1.653207170606596</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>0.5555179840670776</v>
+        <v>1.743169463154315</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>1.902492721194715</v>
+        <v>1.13752746419209</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.817887133274421</v>
+        <v>1.270027657109818</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>1.749602965204744</v>
+        <v>1.311489985227077</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>1.412370212124414</v>
+        <v>1.069982194174801</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.740574921258409</v>
+        <v>1.579162878845075</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>1.513781691628258</v>
+        <v>1.721454720714122</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>1.834894614572802</v>
+        <v>1.335637690776181</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.807349526896274</v>
+        <v>1.452243308058287</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>1.72540577912379</v>
+        <v>1.818507532114921</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>1.859704669579565</v>
+        <v>1.41495314213913</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.115367468044549</v>
+        <v>2.068578555939404</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>2.026192376700298</v>
+        <v>2.23057583006443</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>2.523623631786731</v>
+        <v>1.546132847114134</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.518198850986875</v>
+        <v>2.466427116525516</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.237053039764336</v>
+        <v>1.859723853307749</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.31852959217409</v>
+        <v>2.313955758667841</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.811228693949229</v>
+        <v>1.449675877460654</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.988586823028471</v>
+        <v>1.651658474923545</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>2.344166347125687</v>
+        <v>1.34715816715496</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>1.482188835478793</v>
+        <v>1.186882640643594</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.216415718128294</v>
+        <v>1.128030950601477</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.319239871711941</v>
+        <v>0.9160236606447159</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.001446656562432</v>
+        <v>0.9462474687678801</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.9535061289851043</v>
+        <v>0.4351554058081408</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.4500589383543696</v>
+        <v>0.115841687688345</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>0.9005461608770915</v>
+        <v>0.1938172373549873</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>0.3880736212224845</v>
+        <v>0.8212189468394859</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-1.71906045117115</v>
+        <v>0.1798886261929367</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.624910644707001</v>
+        <v>0.8029144802146782</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-4.378957680654993</v>
+        <v>-4.43626840667447</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>4.711619913745535</v>
+        <v>-14.53740902633983</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.678040396387193</v>
+        <v>-2.092304328310923</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-4.43626840667447</v>
+        <v>-2.180664970010993</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-0.1114187992928839</v>
+        <v>0.6409010839486307</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.065841615027951</v>
+        <v>-1.929204335549095</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>3.829077445426443</v>
+        <v>0.8768515943972544</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.010673730825384</v>
+        <v>-1.513408827666285</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>5.41299470703982</v>
+        <v>1.518684466917741</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>5.01418218718106</v>
+        <v>1.533339625605379</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-1.513408827666285</v>
+        <v>1.586146963184465</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>2.690143847143123</v>
+        <v>0.9586871495637528</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.200566026798723</v>
+        <v>1.632302710072264</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.751396336682911</v>
+        <v>0.9471575920676267</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.906776630685214</v>
+        <v>1.618732201786743</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.996132459072443</v>
+        <v>0.8989718345186803</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1047,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.0257499723208543</v>
+        <v>0.492911192428136</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>1.618732201786743</v>
+        <v>0.1380617204474799</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.07579018556103101</v>
+        <v>0.6801419395370711</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.03476567089377713</v>
+        <v>0.01243672673012508</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.5721616075697</v>
+        <v>0.5779606211723021</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.006131358757832661</v>
+        <v>-0.09609276733164585</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.257115842174117</v>
+        <v>0.3995394213445191</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.9632741816949952</v>
+        <v>0.2100922168233987</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.09609276733164585</v>
+        <v>0.026532539029267</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.4484143214516623</v>
+        <v>0.5801787874785802</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.09018476422182342</v>
+        <v>0.01966607787367014</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.596765107383735</v>
+        <v>0.5811853063761419</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.09179388078603967</v>
+        <v>-0.02761034355766023</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.580446709939154</v>
+        <v>0.5145439483255743</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1183,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.842782598119185</v>
+        <v>0.5208382580577098</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.02761034355766023</v>
+        <v>0.563860530038518</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.5405494419323364</v>
+        <v>0.6380016822143952</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6051432752119057</v>
+        <v>0.5364374648222148</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.5955127736224863</v>
+        <v>0.591050555601802</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5151080441973876</v>
+        <v>0.5152269879013183</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.9526646531309746</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.5152269879013183</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.9237678276839301</v>
+        <v>0.5355893905819142</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>3.14593994906931</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>1.769627576887389</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>-1.611885206309638</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-4.774178217057756</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>1.128600547465064</v>
+        <v>0.26989196962941</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>0.5668332592311476</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>1.97975191822708</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>2.743551941645217</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>2.397632938760519</v>
+        <v>3.872616460773104</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>2.302293339151018</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>3.452886745653183</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>1.794132456841213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.5991205513815823</v>
+        <v>1.385102141502959</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.4163953164477929</v>
+        <v>1.418650881502459</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>1.239479831392853</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.03393100538855442</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.3351240474928963</v>
+        <v>1.158731032337301</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.5555179840670776</v>
+        <v>-0.09990319152052285</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.653207170606596</v>
+        <v>0.9503446311848185</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.2379616621361214</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.743169463154315</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>1.13752746419209</v>
+        <v>1.348985046565354</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.749602965204744</v>
+        <v>1.985365612881851</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.270027657109818</v>
+        <v>1.683270396159919</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>1.51977456621637</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.311489985227077</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.069982194174801</v>
+        <v>0.7739869831243862</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.513781691628258</v>
+        <v>1.326941625882871</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.579162878845075</v>
+        <v>1.183026708734536</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.470039379455756</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1.721454720714122</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>1.335637690776181</v>
+        <v>1.319057785023592</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.72540577912379</v>
+        <v>1.606236217798274</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.452243308058287</v>
+        <v>1.5164178751083</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>1.638797242243251</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>1.818507532114921</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.41495314213913</v>
+        <v>1.236938064849924</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.026192376700298</v>
+        <v>1.730343268967593</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.068578555939404</v>
+        <v>1.500360889159746</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>2.161565493242668</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>2.23057583006443</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>1.546132847114134</v>
+        <v>2.320541194291881</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.466427116525516</v>
+        <v>2.353897533252747</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.859723853307749</v>
+        <v>1.486421985254816</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.313955758667841</v>
+        <v>2.175463816693268</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.449675877460654</v>
+        <v>1.290682042302871</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.344166347125687</v>
+        <v>2.306979482028937</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.651658474923545</v>
+        <v>1.375814392482444</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>2.214251681313772</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.34715816715496</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>1.186882640643594</v>
+        <v>0.6374750548026054</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.128030950601477</v>
+        <v>0.4816924525496313</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.9160236606447159</v>
+        <v>0.9776390272966617</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>0.9462474687678801</v>
+        <v>0.7385331577992593</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.4351554058081408</v>
+        <v>1.193318741914795</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>0.9005461608770915</v>
+        <v>0.6388168203515399</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.115841687688345</v>
+        <v>0.7331704885201074</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>0.6066442151010376</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.1938172373549873</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>0.8212189468394859</v>
+        <v>0.57214245765278</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.1798886261929367</v>
+        <v>0.4580828524435532</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.8029144802146782</v>
+        <v>0.9346503642840398</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-4.43626840667447</v>
+        <v>-1.986210268830169</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-14.53740902633983</v>
+        <v>-1.030455917249229</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-4.43626840667447</v>
+        <v>-4.65090747647452</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.092304328310923</v>
+        <v>-2.124426335989094</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-4.207901339433196</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-2.180664970010993</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>0.6409010839486307</v>
+        <v>-0.2586890779524231</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.929204335549095</v>
+        <v>0.590529387845784</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.8768515943972544</v>
+        <v>0.9817808318997479</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.513408827666285</v>
+        <v>0.4846423081591666</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.518684466917741</v>
+        <v>1.007198277338284</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.513408827666285</v>
+        <v>0.7583924418458787</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.533339625605379</v>
+        <v>1.422024064575078</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>1.099928004397532</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>1.586146963184465</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>0.9586871495637528</v>
+        <v>1.794400784768979</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.632302710072264</v>
+        <v>2.197506404324789</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.9471575920676267</v>
+        <v>1.345036064408078</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.618732201786743</v>
+        <v>1.990013243928312</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.8989718345186803</v>
+        <v>1.178997008351645</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.618732201786743</v>
+        <v>2.236860175919531</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.492911192428136</v>
+        <v>1.139002134681211</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>2.310042359896225</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>0.1380617204474799</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>0.6801419395370711</v>
+        <v>0.8232644777432796</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.01243672673012508</v>
+        <v>0.3858398712458078</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.5779606211723021</v>
+        <v>0.9487085336255197</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.09609276733164585</v>
+        <v>-0.07210020592836042</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.3995394213445191</v>
+        <v>0.7849798646630823</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.09609276733164585</v>
+        <v>-0.09588622947416248</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.2100922168233987</v>
+        <v>0.5889550719078596</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.0464415346324687</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>0.026532539029267</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>0.5801787874785802</v>
+        <v>0.4457784880425031</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.01966607787367014</v>
+        <v>-0.03414634355979329</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.5811853063761419</v>
+        <v>0.8055775472706417</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.02761034355766023</v>
+        <v>-0.03189435474734159</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.5145439483255743</v>
+        <v>0.8280060478212947</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.02761034355766023</v>
+        <v>-0.2385784141923808</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.5208382580577098</v>
+        <v>0.6469810241417351</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-0.3101476031197148</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.563860530038518</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0.6380016822143952</v>
+        <v>0.5215192790195111</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.5364374648222148</v>
+        <v>0.16526024324508</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.591050555601802</v>
+        <v>0.8471324137523606</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5152269879013183</v>
+        <v>0.1720146172997206</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.5355893905819142</v>
+        <v>0.822899916144304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-0.0960403240804597</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.6335680123873866</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-4.65090747647452</v>
+        <v>-8.242174525718626</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.124426335989094</v>
+        <v>-26.14549659067492</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-0.2586890779524231</v>
+        <v>-2.354971109033133</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>0.590529387845784</v>
+        <v>0.1158916911022878</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.9817808318997479</v>
+        <v>0.594792624022733</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.4846423081591666</v>
+        <v>0.2860053465882251</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.007198277338284</v>
+        <v>0.8288333393984937</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.7583924418458787</v>
+        <v>0.4805388623355888</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.422024064575078</v>
+        <v>1.02866086817186</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.794400784768979</v>
+        <v>1.661735028110956</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.197506404324789</v>
+        <v>2.057199970983437</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.345036064408078</v>
+        <v>1.339171613132217</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.990013243928312</v>
+        <v>2.073212743634301</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.178997008351645</v>
+        <v>1.314001387741381</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.236860175919531</v>
+        <v>2.280775510838828</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.139002134681211</v>
+        <v>1.248471288055364</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>0.8232644777432796</v>
+        <v>1.255295035968396</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.3858398712458078</v>
+        <v>0.7685013195685153</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.9487085336255197</v>
+        <v>1.115540202483833</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.07210020592836042</v>
+        <v>0.1702535274276551</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.7849798646630823</v>
+        <v>0.9294108124177747</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.09588622947416248</v>
+        <v>0.05190692403960195</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.5889550719078596</v>
+        <v>0.8166564254529218</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.4457784880425031</v>
+        <v>0.6780125808669935</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.03414634355979329</v>
+        <v>0.263148231647703</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.8055775472706417</v>
+        <v>0.8874238669137835</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.03189435474734159</v>
+        <v>0.0356275218485802</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.8280060478212947</v>
+        <v>0.8589821564190414</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.2385784141923808</v>
+        <v>-0.1509516149670653</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.6469810241417351</v>
+        <v>0.7654957281474362</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.5215192790195111</v>
+        <v>0.6241787054042991</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.16526024324508</v>
+        <v>0.2326854252627353</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.8471324137523606</v>
+        <v>0.8248503612397817</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.1720146172997206</v>
+        <v>0.2540664354640843</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.822899916144304</v>
+        <v>0.869826012544328</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-0.0960403240804597</v>
+        <v>-0.02895012887443871</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.6335680123873866</v>
+        <v>0.7335820593375564</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>3.14593994906931</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>1.769627576887389</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -510,7 +504,7 @@
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>2.743551941645217</v>
+        <v>2.743551941645195</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,7 +521,7 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>2.302293339151018</v>
+        <v>2.302293339150996</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,7 +538,7 @@
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>1.794132456841213</v>
+        <v>1.794132456841191</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -555,7 +549,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.385102141502959</v>
+        <v>1.385102141502936</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -572,7 +566,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>1.239479831392853</v>
+        <v>1.239479831392831</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -606,13 +600,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.2379616621361214</v>
+        <v>0.2379616621360992</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>1.348985046565354</v>
+        <v>1.348985046565399</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -623,13 +617,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.985365612881851</v>
+        <v>1.985365612881895</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.683270396159919</v>
+        <v>1.683270396159897</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,7 +640,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>0.7739869831243862</v>
+        <v>0.7739869831244084</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -657,7 +651,7 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.326941625882871</v>
+        <v>1.326941625882849</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -674,13 +668,13 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>1.470039379455756</v>
+        <v>1.470039379455734</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>1.319057785023592</v>
+        <v>1.319057785023636</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -691,13 +685,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.606236217798274</v>
+        <v>1.606236217798318</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.5164178751083</v>
+        <v>1.516417875108278</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -708,13 +702,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>1.638797242243251</v>
+        <v>1.638797242243228</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>1.236938064849924</v>
+        <v>1.236938064849946</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -748,7 +742,7 @@
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>2.320541194291881</v>
+        <v>2.320541194291859</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -759,7 +753,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.353897533252747</v>
+        <v>2.35389753325268</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -776,13 +770,13 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.175463816693268</v>
+        <v>2.175463816693246</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.290682042302871</v>
+        <v>1.290682042302849</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -793,7 +787,7 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.306979482028937</v>
+        <v>2.306979482028892</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -816,7 +810,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>0.6374750548026054</v>
+        <v>0.6374750548025609</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -827,7 +821,7 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.4816924525496313</v>
+        <v>0.4816924525496091</v>
       </c>
       <c r="D27">
         <v>2020</v>
@@ -844,7 +838,7 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>0.7385331577992593</v>
+        <v>0.7385331577992371</v>
       </c>
       <c r="D28">
         <v>2020</v>
@@ -861,13 +855,13 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>0.6388168203515399</v>
+        <v>0.6388168203515621</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.7331704885201074</v>
+        <v>0.7331704885200852</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,7 +878,7 @@
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>0.57214245765278</v>
+        <v>0.5721424576528022</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,7 +895,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.9346503642840398</v>
+        <v>0.934650364284062</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -929,13 +923,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-8.242174525718626</v>
+        <v>-8.242174525718637</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-26.14549659067492</v>
+        <v>-26.14549659067491</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -969,7 +963,7 @@
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.594792624022733</v>
+        <v>0.5947926240227552</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +974,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.2860053465882251</v>
+        <v>0.2860053465882473</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.8288333393984937</v>
+        <v>0.8288333393985159</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,7 +997,7 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.02866086817186</v>
+        <v>1.028660868171882</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1014,13 +1008,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>1.099928004397532</v>
+        <v>1.099928004397577</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.661735028110956</v>
+        <v>1.661735028110978</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1025,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.057199970983437</v>
+        <v>2.057199970983459</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.339171613132217</v>
+        <v>1.33917161313224</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,7 +1042,7 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.073212743634301</v>
+        <v>2.073212743634323</v>
       </c>
       <c r="D40">
         <v>2023</v>
@@ -1082,13 +1076,13 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>2.310042359896225</v>
+        <v>2.310042359896247</v>
       </c>
       <c r="D42">
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>1.255295035968396</v>
+        <v>1.255295035968373</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1093,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.7685013195685153</v>
+        <v>0.7685013195685375</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.115540202483833</v>
+        <v>1.115540202483811</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,7 +1116,7 @@
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.9294108124177747</v>
+        <v>0.9294108124177525</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,7 +1133,7 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.8166564254529218</v>
+        <v>0.816656425452944</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1167,7 +1161,7 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.263148231647703</v>
+        <v>0.2631482316476808</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -1190,7 +1184,7 @@
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.8589821564190414</v>
+        <v>0.8589821564190636</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1195,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.1509516149670653</v>
+        <v>-0.1509516149670764</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.7654957281474362</v>
+        <v>0.7654957281474584</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1218,7 +1212,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>-0.3101476031197148</v>
+        <v>-0.3101476031197037</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1235,7 +1229,7 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.2326854252627353</v>
+        <v>0.2326854252627131</v>
       </c>
       <c r="D51">
         <v>2026</v>
@@ -1258,7 +1252,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.869826012544328</v>
+        <v>0.8698260125443502</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,7 +1263,7 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-0.02895012887443871</v>
+        <v>-0.0289501288744165</v>
       </c>
       <c r="D53">
         <v>2026</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>0.7335820593375564</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-0.08656168856399082</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>0.6232357314897463</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
